--- a/works.xlsx
+++ b/works.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\uniapp\yingchao_uniapp\yc_school_study\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A310716-01CE-45DA-8729-47BC20F2D58B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>前端功能</t>
   </si>
@@ -153,6 +147,9 @@
     <t>地址</t>
   </si>
   <si>
+    <t>钱包-余额</t>
+  </si>
+  <si>
     <t>钱包-投资</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
     <t>钱包-挖宝</t>
   </si>
   <si>
+    <t>消息列表</t>
+  </si>
+  <si>
     <t>公共</t>
   </si>
   <si>
@@ -181,13 +181,25 @@
   </si>
   <si>
     <t>图文-新闻</t>
+  </si>
+  <si>
+    <t>图文-关于会员</t>
+  </si>
+  <si>
+    <t>图文-关于我们</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,21 +208,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,12 +380,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -244,43 +585,332 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -567,31 +1197,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="9.88333333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="21" customHeight="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
       <c r="D1" t="s">
         <v>1</v>
       </c>
@@ -608,9 +1238,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+    <row r="2" ht="13.95" customHeight="1" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -618,302 +1248,335 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:3">
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3">
       <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3">
       <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="2:3">
       <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:3">
       <c r="B37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3">
       <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="2:3">
       <c r="B42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="2:3">
       <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3">
       <c r="B45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
         <v>49</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
       <c r="B56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/works.xlsx
+++ b/works.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>前端功能</t>
   </si>
@@ -36,24 +36,51 @@
     <t>功能</t>
   </si>
   <si>
+    <t>课后题</t>
+  </si>
+  <si>
     <t>首页</t>
   </si>
   <si>
     <t>签到记录</t>
   </si>
   <si>
+    <t>同步练习</t>
+  </si>
+  <si>
     <t>到校签到</t>
   </si>
   <si>
+    <t>测试</t>
+  </si>
+  <si>
     <t>离校签到</t>
   </si>
   <si>
+    <t>错题本</t>
+  </si>
+  <si>
     <t>龙虎榜</t>
   </si>
   <si>
+    <t>搜题</t>
+  </si>
+  <si>
     <t>挖宝</t>
   </si>
   <si>
+    <t>知识树</t>
+  </si>
+  <si>
+    <t>复习</t>
+  </si>
+  <si>
+    <t>刁难老师</t>
+  </si>
+  <si>
+    <t>门店</t>
+  </si>
+  <si>
     <t>学习</t>
   </si>
   <si>
@@ -63,37 +90,37 @@
     <t>课堂一览</t>
   </si>
   <si>
+    <t>邀请</t>
+  </si>
+  <si>
     <t>课堂计划</t>
   </si>
   <si>
     <t>课堂点评</t>
   </si>
   <si>
+    <t>分享</t>
+  </si>
+  <si>
     <t>课本</t>
   </si>
   <si>
-    <t>课后题</t>
-  </si>
-  <si>
-    <t>同步练习</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>错题本</t>
-  </si>
-  <si>
-    <t>搜题</t>
-  </si>
-  <si>
-    <t>知识树</t>
-  </si>
-  <si>
-    <t>复习</t>
-  </si>
-  <si>
-    <t>刁难老师</t>
+    <t>钱包-转账</t>
+  </si>
+  <si>
+    <t>钱包-提现</t>
+  </si>
+  <si>
+    <t>钱包-孩子收益</t>
+  </si>
+  <si>
+    <t>钱包-孩子充值</t>
+  </si>
+  <si>
+    <t>记账</t>
+  </si>
+  <si>
+    <t>记账明细</t>
   </si>
   <si>
     <t>圈子</t>
@@ -102,9 +129,6 @@
     <t>发布</t>
   </si>
   <si>
-    <t>门店</t>
-  </si>
-  <si>
     <t>帮帮办</t>
   </si>
   <si>
@@ -132,12 +156,6 @@
     <t>绑定</t>
   </si>
   <si>
-    <t>邀请</t>
-  </si>
-  <si>
-    <t>分享</t>
-  </si>
-  <si>
     <t>好友</t>
   </si>
   <si>
@@ -151,18 +169,6 @@
   </si>
   <si>
     <t>钱包-投资</t>
-  </si>
-  <si>
-    <t>钱包-转账</t>
-  </si>
-  <si>
-    <t>钱包-提现</t>
-  </si>
-  <si>
-    <t>钱包-孩子收益</t>
-  </si>
-  <si>
-    <t>钱包-孩子充值</t>
   </si>
   <si>
     <t>钱包-挖宝</t>
@@ -195,9 +201,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -223,14 +229,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,9 +343,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,113 +364,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -392,6 +398,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,175 +566,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,73 +595,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +624,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,133 +709,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,10 +1209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:C60"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1215,6 +1221,7 @@
     <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
     <col min="3" max="3" width="9.88333333333333" customWidth="1"/>
     <col min="4" max="4" width="10.1083333333333" customWidth="1"/>
+    <col min="5" max="5" width="15.475" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:10">
@@ -1238,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="13.95" customHeight="1" spans="1:4">
+    <row r="2" ht="13.95" customHeight="1" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1247,294 +1254,364 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="2:3">
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="2:3">
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="2:3">
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2"/>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="13:13">
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="13:13">
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="13:13">
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="M17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
+      <c r="C19" s="3"/>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
       <c r="C20" s="3"/>
+      <c r="M20" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\uniapp_code\yingchao_uniapp\yc_school_study\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E861BBA4-007B-4541-BD43-F4DE9C1B674E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,14 +204,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,151 +221,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,194 +258,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -591,260 +267,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -855,68 +286,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1203,32 +593,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C50" sqref="C46:C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="9.88333333333333" customWidth="1"/>
-    <col min="4" max="4" width="10.1083333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.475" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="5"/>
       <c r="D1" t="s">
         <v>1</v>
       </c>
@@ -1245,9 +635,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="13.95" customHeight="1" spans="1:13">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -1258,335 +648,336 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
       <c r="M3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="1"/>
       <c r="M4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
       <c r="M5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1"/>
       <c r="M6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1"/>
       <c r="M7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="13:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="13:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="13:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="2:13">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1"/>
       <c r="M12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="1"/>
       <c r="M13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="1"/>
       <c r="M14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="1"/>
       <c r="M15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="1"/>
       <c r="M16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="1"/>
       <c r="M17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="1"/>
       <c r="M18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="1"/>
       <c r="M19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="2"/>
       <c r="M20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="2:3">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="2:3">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="2:3">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="2:3">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="2:3">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="2:3">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="2:3">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="2:3">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="2:2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="2:3">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="2:3">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="2:2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="2:2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="2:3">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="2:2">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -1594,22 +985,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>58</v>
       </c>
@@ -1618,42 +1009,36 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/works.xlsx
+++ b/works.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\uniapp_code\yingchao_uniapp\yc_school_study\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E861BBA4-007B-4541-BD43-F4DE9C1B674E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>前端功能</t>
   </si>
@@ -199,13 +193,34 @@
   </si>
   <si>
     <t>图文-关于我们</t>
+  </si>
+  <si>
+    <t>1110757041</t>
+  </si>
+  <si>
+    <t>E696TeMOw6gSn5NV</t>
+  </si>
+  <si>
+    <t>5e0a221516ae87c2604ae33e56e8f660</t>
+  </si>
+  <si>
+    <t>wx972f483d0e38c8b6</t>
+  </si>
+  <si>
+    <t>4d6343ea136dc433b8ff1914acee2b00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +229,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF353535"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF9A9A9A"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -221,13 +254,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,8 +429,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -267,46 +624,344 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -593,32 +1248,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C50" sqref="C46:C50"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="9.88333333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.1083333333333" customWidth="1"/>
+    <col min="5" max="5" width="15.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="21" customHeight="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="4"/>
       <c r="D1" t="s">
         <v>1</v>
       </c>
@@ -635,9 +1290,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+    <row r="2" ht="13.95" customHeight="1" spans="1:13">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -648,336 +1303,336 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="5"/>
       <c r="M3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="5"/>
       <c r="M4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="5"/>
       <c r="M5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="5"/>
       <c r="M6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="5"/>
       <c r="M7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="13:13">
       <c r="M8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="13:13">
       <c r="M9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="13:13">
       <c r="M10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="5"/>
       <c r="M12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13">
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="5"/>
       <c r="M13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13">
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="5"/>
       <c r="M14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13">
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="5"/>
       <c r="M15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="5"/>
       <c r="M16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="5"/>
       <c r="M17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="5"/>
       <c r="M18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="5"/>
       <c r="M19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="6"/>
       <c r="M20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="2:3">
       <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="2:3">
       <c r="B35" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="2:3">
       <c r="B36" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="2:3">
       <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3">
       <c r="B39" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3">
       <c r="B41" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="2:3">
       <c r="B42" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="2:3">
       <c r="B43" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3">
       <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="2:3">
       <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -985,22 +1640,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2">
       <c r="B57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2">
       <c r="B59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2">
       <c r="B60" t="s">
         <v>58</v>
       </c>
@@ -1009,36 +1664,71 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="15" spans="2:2">
+      <c r="B2" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="2:2">
+      <c r="B7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/works.xlsx
+++ b/works.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>前端功能</t>
   </si>
@@ -208,6 +208,108 @@
   </si>
   <si>
     <t>4d6343ea136dc433b8ff1914acee2b00</t>
+  </si>
+  <si>
+    <t>后台功能</t>
+  </si>
+  <si>
+    <t>用户查看</t>
+  </si>
+  <si>
+    <t>钱包管理</t>
+  </si>
+  <si>
+    <t>钱包收支明细</t>
+  </si>
+  <si>
+    <t>银行卡管理</t>
+  </si>
+  <si>
+    <t>等级管理</t>
+  </si>
+  <si>
+    <t>订单管理</t>
+  </si>
+  <si>
+    <t>计划管理</t>
+  </si>
+  <si>
+    <t>计划订单管理</t>
+  </si>
+  <si>
+    <t>通道管理</t>
+  </si>
+  <si>
+    <t>分销设置</t>
+  </si>
+  <si>
+    <t>银行设置</t>
+  </si>
+  <si>
+    <t>原数据</t>
+  </si>
+  <si>
+    <t>新数据</t>
+  </si>
+  <si>
+    <t>数据迁移</t>
+  </si>
+  <si>
+    <t>用户表</t>
+  </si>
+  <si>
+    <t>实名认证表</t>
+  </si>
+  <si>
+    <t>用户余额表</t>
+  </si>
+  <si>
+    <t>结算卡</t>
+  </si>
+  <si>
+    <t>银行卡表</t>
+  </si>
+  <si>
+    <t>快捷信用卡</t>
+  </si>
+  <si>
+    <t>代还信用卡</t>
+  </si>
+  <si>
+    <t>前端页面</t>
+  </si>
+  <si>
+    <t>卡包</t>
+  </si>
+  <si>
+    <t>+代还</t>
+  </si>
+  <si>
+    <t>+下计划</t>
+  </si>
+  <si>
+    <t>+看计划</t>
+  </si>
+  <si>
+    <t>+跑代还</t>
+  </si>
+  <si>
+    <t>+快捷</t>
+  </si>
+  <si>
+    <t>+支付</t>
+  </si>
+  <si>
+    <t>交易记录</t>
+  </si>
+  <si>
+    <t>通道对接模块</t>
+  </si>
+  <si>
+    <t>通道对接</t>
+  </si>
+  <si>
+    <t>通道维护</t>
   </si>
 </sst>
 </file>
@@ -220,7 +322,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +331,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
@@ -262,14 +372,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,48 +484,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,68 +507,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,43 +523,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +679,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -473,19 +709,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,126 +733,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -625,26 +747,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,6 +857,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -707,21 +900,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,10 +908,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,169 +920,217 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1256,8 +1482,8 @@
   <sheetPr/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1270,10 +1496,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="20"/>
       <c r="D1" t="s">
         <v>1</v>
       </c>
@@ -1291,8 +1517,8 @@
       </c>
     </row>
     <row r="2" ht="13.95" customHeight="1" spans="1:13">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1536,7 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="2"/>
       <c r="M3" t="s">
         <v>9</v>
       </c>
@@ -1319,7 +1545,7 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="2"/>
       <c r="M4" t="s">
         <v>11</v>
       </c>
@@ -1328,7 +1554,7 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="2"/>
       <c r="M5" t="s">
         <v>13</v>
       </c>
@@ -1337,7 +1563,7 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="2"/>
       <c r="M6" t="s">
         <v>15</v>
       </c>
@@ -1346,7 +1572,7 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="2"/>
       <c r="M7" t="s">
         <v>17</v>
       </c>
@@ -1373,13 +1599,13 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="2"/>
       <c r="M12" t="s">
         <v>24</v>
       </c>
@@ -1388,7 +1614,7 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="2"/>
       <c r="M13" t="s">
         <v>20</v>
       </c>
@@ -1397,7 +1623,7 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="2"/>
       <c r="M14" t="s">
         <v>27</v>
       </c>
@@ -1406,7 +1632,7 @@
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="2"/>
       <c r="M15" t="s">
         <v>29</v>
       </c>
@@ -1415,7 +1641,7 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="2"/>
       <c r="M16" t="s">
         <v>30</v>
       </c>
@@ -1424,7 +1650,7 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="2"/>
       <c r="M17" t="s">
         <v>31</v>
       </c>
@@ -1433,7 +1659,7 @@
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="2"/>
       <c r="M18" t="s">
         <v>32</v>
       </c>
@@ -1442,7 +1668,7 @@
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="2"/>
       <c r="M19" t="s">
         <v>33</v>
       </c>
@@ -1451,7 +1677,7 @@
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="21"/>
       <c r="M20" t="s">
         <v>34</v>
       </c>
@@ -1460,19 +1686,19 @@
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="21"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="21"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
@@ -1481,37 +1707,37 @@
       <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="23"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
@@ -1520,25 +1746,25 @@
       <c r="B34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
@@ -1549,7 +1775,7 @@
       <c r="B39" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
@@ -1560,19 +1786,19 @@
       <c r="B41" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="5"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="5"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
@@ -1583,7 +1809,7 @@
       <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
@@ -1614,13 +1840,13 @@
       <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
@@ -1676,7 +1902,7 @@
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1685,7 +1911,7 @@
   </cols>
   <sheetData>
     <row r="2" ht="15" spans="2:2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="24" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1700,12 +1926,12 @@
       </c>
     </row>
     <row r="6" ht="17.25" spans="2:2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="2:2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1719,14 +1945,254 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="14" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:14">
+      <c r="E2" s="1">
+        <v>44090</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44091</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44092</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44093</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44094</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44095</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44096</v>
+      </c>
+      <c r="L2" s="1">
+        <v>44097</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44098</v>
+      </c>
+      <c r="N2" s="1">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="16" ht="14.25" spans="2:3">
+      <c r="B16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="F34" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C20:C22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/works.xlsx
+++ b/works.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\uniapp_code\yingchao_uniapp\yc_school_study\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93971DCF-4BDA-4B94-AAAF-9D0FFEBC7B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>前端功能</t>
   </si>
@@ -193,21 +199,6 @@
   </si>
   <si>
     <t>图文-关于我们</t>
-  </si>
-  <si>
-    <t>1110757041</t>
-  </si>
-  <si>
-    <t>E696TeMOw6gSn5NV</t>
-  </si>
-  <si>
-    <t>5e0a221516ae87c2604ae33e56e8f660</t>
-  </si>
-  <si>
-    <t>wx972f483d0e38c8b6</t>
-  </si>
-  <si>
-    <t>4d6343ea136dc433b8ff1914acee2b00</t>
   </si>
   <si>
     <t>后台功能</t>
@@ -315,14 +306,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,7 +327,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -364,151 +349,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,194 +398,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -802,255 +463,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1074,120 +493,64 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1474,32 +837,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="9.88333333333333" customWidth="1"/>
-    <col min="4" max="4" width="10.1083333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:10">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
       <c r="D1" t="s">
         <v>1</v>
       </c>
@@ -1516,9 +879,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="13.95" customHeight="1" spans="1:13">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+    <row r="2" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -1529,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1541,7 +904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1550,7 +913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -1559,7 +922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -1568,7 +931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1577,22 +940,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="13:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="13:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="13:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1601,7 +964,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -1610,7 +973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1619,7 +982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1628,7 +991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -1637,7 +1000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -1646,7 +1009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -1655,7 +1018,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1664,7 +1027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>13</v>
       </c>
@@ -1673,34 +1036,34 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="13"/>
       <c r="M20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="21"/>
-    </row>
-    <row r="23" spans="2:3">
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="21"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C23" s="13"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1709,37 +1072,37 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="22"/>
-    </row>
-    <row r="28" spans="2:3">
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="23"/>
-    </row>
-    <row r="29" spans="2:3">
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1748,117 +1111,117 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -1866,22 +1229,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>58</v>
       </c>
@@ -1890,79 +1253,60 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15" spans="2:2">
-      <c r="B2" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" spans="2:2">
-      <c r="B6" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" spans="2:2">
-      <c r="B7" s="19" t="s">
-        <v>63</v>
-      </c>
+    <row r="2" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="16"/>
+    </row>
+    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="14" width="11.25" customWidth="1"/>
+    <col min="5" max="14" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E2" s="1">
         <v>44090</v>
       </c>
@@ -1994,196 +1338,196 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
+      <c r="C17" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
+      <c r="C18" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="16" ht="14.25" spans="2:3">
-      <c r="B16" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="21"/>
+      <c r="C19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="7" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C20" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="8" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11" t="s">
+      <c r="C21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="11" t="s">
+      <c r="C22" s="22"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="12" t="s">
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="12" t="s">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="12" t="s">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="26" t="s">
-        <v>91</v>
       </c>
       <c r="C28" s="4"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="25" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>92</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" t="s">
-        <v>97</v>
       </c>
       <c r="C34" s="4"/>
       <c r="F34" s="5"/>
@@ -2193,8 +1537,8 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C20:C22"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/works.xlsx
+++ b/works.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\uniapp_code\yingchao_uniapp\yc_school_study\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93971DCF-4BDA-4B94-AAAF-9D0FFEBC7B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>前端功能</t>
   </si>
@@ -39,42 +33,63 @@
     <t>页面</t>
   </si>
   <si>
+    <t>修改需求</t>
+  </si>
+  <si>
     <t>功能</t>
   </si>
   <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>签到记录</t>
+  </si>
+  <si>
+    <t>到校签到</t>
+  </si>
+  <si>
+    <t>离校签到</t>
+  </si>
+  <si>
+    <t>排行榜单</t>
+  </si>
+  <si>
+    <t>挖宝</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>课表</t>
+  </si>
+  <si>
+    <t>课堂一览</t>
+  </si>
+  <si>
+    <t>课堂计划</t>
+  </si>
+  <si>
+    <t>课堂点评</t>
+  </si>
+  <si>
+    <t>课本</t>
+  </si>
+  <si>
     <t>课后题</t>
   </si>
   <si>
-    <t>首页</t>
-  </si>
-  <si>
-    <t>签到记录</t>
-  </si>
-  <si>
     <t>同步练习</t>
   </si>
   <si>
-    <t>到校签到</t>
-  </si>
-  <si>
     <t>测试</t>
   </si>
   <si>
-    <t>离校签到</t>
-  </si>
-  <si>
     <t>错题本</t>
   </si>
   <si>
-    <t>龙虎榜</t>
-  </si>
-  <si>
     <t>搜题</t>
   </si>
   <si>
-    <t>挖宝</t>
-  </si>
-  <si>
     <t>知识树</t>
   </si>
   <si>
@@ -84,31 +99,58 @@
     <t>刁难老师</t>
   </si>
   <si>
+    <t>圈子</t>
+  </si>
+  <si>
+    <t>发布</t>
+  </si>
+  <si>
     <t>门店</t>
   </si>
   <si>
-    <t>学习</t>
-  </si>
-  <si>
-    <t>课表</t>
-  </si>
-  <si>
-    <t>课堂一览</t>
+    <t>我的圈子</t>
+  </si>
+  <si>
+    <t>动态详情</t>
+  </si>
+  <si>
+    <t>点赞评论</t>
+  </si>
+  <si>
+    <t>我的</t>
+  </si>
+  <si>
+    <t>钱包-首页</t>
+  </si>
+  <si>
+    <t>钱包-收支记录</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>绑定</t>
   </si>
   <si>
     <t>邀请</t>
   </si>
   <si>
-    <t>课堂计划</t>
-  </si>
-  <si>
-    <t>课堂点评</t>
-  </si>
-  <si>
-    <t>分享</t>
-  </si>
-  <si>
-    <t>课本</t>
+    <t>邀请人展示一个二维码,用户扫一下绑定上级关系</t>
+  </si>
+  <si>
+    <t>好友</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>钱包-余额</t>
+  </si>
+  <si>
+    <t>钱包-投资</t>
   </si>
   <si>
     <t>钱包-转账</t>
@@ -117,70 +159,19 @@
     <t>钱包-提现</t>
   </si>
   <si>
-    <t>钱包-孩子收益</t>
+    <t>钱包-孩子钱包</t>
   </si>
   <si>
     <t>钱包-孩子充值</t>
   </si>
   <si>
-    <t>记账</t>
-  </si>
-  <si>
-    <t>记账明细</t>
-  </si>
-  <si>
-    <t>圈子</t>
-  </si>
-  <si>
-    <t>发布</t>
-  </si>
-  <si>
-    <t>帮帮办</t>
-  </si>
-  <si>
-    <t>我的圈子</t>
-  </si>
-  <si>
-    <t>动态详情</t>
-  </si>
-  <si>
-    <t>点赞评论</t>
-  </si>
-  <si>
-    <t>我的</t>
-  </si>
-  <si>
-    <t>钱包-首页</t>
-  </si>
-  <si>
-    <t>钱包-收支记录</t>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>绑定</t>
-  </si>
-  <si>
-    <t>好友</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>钱包-余额</t>
-  </si>
-  <si>
-    <t>钱包-投资</t>
-  </si>
-  <si>
     <t>钱包-挖宝</t>
   </si>
   <si>
     <t>消息列表</t>
+  </si>
+  <si>
+    <t>记账本</t>
   </si>
   <si>
     <t>公共</t>
@@ -306,8 +297,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,7 +324,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -349,13 +346,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,12 +529,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -463,13 +778,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,66 +1051,202 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>210820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="142875"/>
+          <a:ext cx="11582400" cy="5476875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>515620</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5943600"/>
+          <a:ext cx="12944475" cy="3933825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -837,62 +1530,63 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="15.575" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" ht="21" customHeight="1" spans="1:11">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="D1" t="s">
+      <c r="B1" s="14"/>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+    <row r="2" ht="13.95" customHeight="1" spans="1:5">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -900,413 +1594,344 @@
         <v>8</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="M3" t="s">
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="M4" t="s">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="M5" t="s">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="M6" t="s">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="M7" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M8" t="s">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M9" t="s">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M10" t="s">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="M12" t="s">
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="M13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="M14" t="s">
+      <c r="C23" s="20"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="M15" t="s">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="M16" t="s">
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="M17" t="s">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="M18" t="s">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="M19" t="s">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="M20" t="s">
+      <c r="B33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" ht="67.5" spans="2:4">
+      <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="D37" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
       <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" ht="15" spans="2:2">
       <c r="B2" s="16"/>
     </row>
-    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
+    <row r="6" ht="17.25" spans="2:2">
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" ht="17.25" spans="2:2">
+      <c r="B7" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.8833333333333" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="14" width="11.21875" customWidth="1"/>
+    <col min="5" max="14" width="11.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:14">
       <c r="E2" s="1">
         <v>44090</v>
       </c>
@@ -1338,196 +1963,197 @@
         <v>44099</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
         <v>64</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>65</v>
       </c>
       <c r="C8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="15" ht="14.25"/>
+    <row r="16" ht="14.25" spans="2:3">
+      <c r="B16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="7" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="C17" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="9" t="s">
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="9" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="22" t="s">
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="13"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="22"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="23" t="s">
         <v>85</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="C28" s="4"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="2:3">
+      <c r="B29" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>90</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
         <v>91</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>92</v>
       </c>
       <c r="C34" s="4"/>
       <c r="F34" s="5"/>
@@ -1537,8 +2163,8 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C20:C22"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/works.xlsx
+++ b/works.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t>前端功能</t>
   </si>
@@ -234,12 +234,18 @@
     <t>新数据</t>
   </si>
   <si>
+    <t>黄岛公司 王永青:</t>
+  </si>
+  <si>
     <t>数据迁移</t>
   </si>
   <si>
     <t>用户表</t>
   </si>
   <si>
+    <t>scp /disk1/ucb.zip root@172.26.213.168:/root</t>
+  </si>
+  <si>
     <t>实名认证表</t>
   </si>
   <si>
@@ -252,7 +258,13 @@
     <t>银行卡表</t>
   </si>
   <si>
+    <t>@走走停停  记得写脚本， 从压缩到传输到 测试服务器，之后看看 脚本处理。。！</t>
+  </si>
+  <si>
     <t>快捷信用卡</t>
+  </si>
+  <si>
+    <t>估计要到数据跟处理数据 最多就一晚上的时间。。</t>
   </si>
   <si>
     <t>代还信用卡</t>
@@ -300,8 +312,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -347,14 +359,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,20 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -415,16 +442,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,15 +481,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,37 +495,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -511,205 +523,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,50 +791,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -843,6 +811,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,6 +864,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -884,10 +896,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -896,133 +908,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,9 +1054,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1054,19 +1063,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1074,6 +1083,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1538,7 +1550,7 @@
   <sheetPr/>
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A31" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -1553,10 +1565,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:11">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="13"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
@@ -1574,8 +1586,8 @@
       </c>
     </row>
     <row r="2" ht="13.95" customHeight="1" spans="1:5">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -1686,7 +1698,7 @@
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="15"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
@@ -1760,7 +1772,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" ht="67.5" spans="2:4">
+    <row r="37" ht="40.5" spans="2:4">
       <c r="B37" t="s">
         <v>38</v>
       </c>
@@ -1802,7 +1814,7 @@
       <c r="B43" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="15"/>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
@@ -1885,7 +1897,7 @@
   <sheetPr/>
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -1916,10 +1928,10 @@
   <sheetPr/>
   <dimension ref="A2:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2019,12 +2031,13 @@
       <c r="C10" s="2"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:10">
       <c r="B11" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
@@ -2039,124 +2052,141 @@
       <c r="C13" s="2"/>
     </row>
     <row r="15" ht="14.25"/>
-    <row r="16" ht="14.25" spans="2:3">
-      <c r="B16" s="6" t="s">
+    <row r="16" ht="14.25" spans="2:11">
+      <c r="B16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="12" t="s">
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="K21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="13"/>
+      <c r="B22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="12"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="23" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:10">
       <c r="B28" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="F28" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="F28" s="4"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:10">
       <c r="B34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="F34" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="F34" s="4"/>
+      <c r="J34" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/works.xlsx
+++ b/works.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="21000" windowHeight="11790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>前端功能</t>
   </si>
@@ -190,6 +191,18 @@
   </si>
   <si>
     <t>图文-关于我们</t>
+  </si>
+  <si>
+    <t>外网面板地址: http://124.70.180.13:8888/dadc2ab0</t>
+  </si>
+  <si>
+    <t>内网面板地址: http://192.168.0.24:8888/dadc2ab0</t>
+  </si>
+  <si>
+    <t>username: 9dkhhft5</t>
+  </si>
+  <si>
+    <t>password: b595a840</t>
   </si>
   <si>
     <t>后台功能</t>
@@ -359,16 +372,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,6 +454,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -388,14 +485,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,21 +499,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -432,46 +507,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -479,28 +514,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -541,13 +554,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,169 +722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,6 +804,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -806,11 +852,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,21 +888,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -864,30 +901,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -896,10 +909,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,133 +921,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1550,7 +1563,7 @@
   <sheetPr/>
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -1895,13 +1908,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:B7"/>
+  <dimension ref="B2:B64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A61" sqref="$A61:$XFD64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="19.1083333333333" customWidth="1"/>
   </cols>
@@ -1914,6 +1927,26 @@
     </row>
     <row r="7" ht="17.25" spans="2:2">
       <c r="B7" s="18"/>
+    </row>
+    <row r="61" ht="16" customHeight="1" spans="2:2">
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" ht="16" customHeight="1" spans="2:2">
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" ht="16" customHeight="1" spans="2:2">
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" ht="16" customHeight="1" spans="2:2">
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1977,63 +2010,63 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2"/>
       <c r="F11" s="4"/>
@@ -2041,113 +2074,113 @@
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="15" ht="14.25"/>
     <row r="16" ht="14.25" spans="2:11">
       <c r="B16" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C21" s="12"/>
       <c r="K21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C22" s="12"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2"/>
       <c r="F28" s="4"/>
@@ -2155,34 +2188,34 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="22" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="23" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C34" s="15"/>
       <c r="F34" s="4"/>
@@ -2197,4 +2230,20 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>